--- a/Running projects/Citi Bank Dolmen Sky Tower/VO/03- variation order for Air devises - Mehran.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/VO/03- variation order for Air devises - Mehran.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE6347-AFB4-4AB7-A1DF-7B394F9E982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D71604-0434-43C8-9715-C561B77227E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>S. #</t>
   </si>
@@ -59,24 +59,15 @@
     <t>Nos</t>
   </si>
   <si>
-    <t>Over Head profit 25%</t>
-  </si>
-  <si>
     <t>Material Rate</t>
   </si>
   <si>
     <t>Variation order for Air Devices</t>
   </si>
   <si>
-    <t>Supply and installation of Fresh air intake louvers</t>
-  </si>
-  <si>
     <t>i) 400 x 500 mm</t>
   </si>
   <si>
-    <t>Installation Rate</t>
-  </si>
-  <si>
     <t>ii) 1250 x 1000 mm</t>
   </si>
   <si>
@@ -90,6 +81,18 @@
   </si>
   <si>
     <t>Note: Vendor's quotation attached</t>
+  </si>
+  <si>
+    <t>Supply of Fresh air intake louvers</t>
+  </si>
+  <si>
+    <t>Installation of Fresh air intake louvers</t>
+  </si>
+  <si>
+    <t>Total Rates</t>
+  </si>
+  <si>
+    <t>Over Head profit 28%</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,14 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,6 +362,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -363,11 +377,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -398,7 +409,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
+      <xdr:colOff>514985</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -454,13 +465,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>140335</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>407035</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>14553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -513,16 +524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>420308</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134166</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>277433</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>248466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,7 +556,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="771525"/>
+          <a:off x="9201150" y="1752600"/>
           <a:ext cx="8659433" cy="5849166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -845,18 +856,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K46"/>
+  <dimension ref="A7:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="3" customWidth="1"/>
@@ -870,102 +881,160 @@
     <row r="9" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="13" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="H16" s="9">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="B14" s="33"/>
+      <c r="H14" s="9">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>1</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="C24" s="15">
+        <v>7360</v>
+      </c>
+      <c r="D24" s="16">
+        <f>SUM(C24)*28%</f>
+        <v>2060.8000000000002</v>
+      </c>
+      <c r="E24" s="16">
+        <f>D24+C24</f>
+        <v>9420.7999999999993</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="H24" s="15">
+        <f>G24*E24</f>
+        <v>37683.199999999997</v>
+      </c>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
       <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="15">
+        <v>46000</v>
+      </c>
+      <c r="D25" s="16">
+        <f>SUM(C25)*28%</f>
+        <v>12880.000000000002</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25:E34" si="0">D25+C25</f>
+        <v>58880</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14">
+        <v>2</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:H34" si="1">G25*E25</f>
+        <v>117760</v>
+      </c>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
@@ -973,175 +1042,260 @@
         <v>17</v>
       </c>
       <c r="C26" s="15">
-        <v>7360</v>
-      </c>
-      <c r="D26" s="15">
-        <v>5000</v>
+        <v>31280</v>
+      </c>
+      <c r="D26" s="16">
+        <f>SUM(C26)*28%</f>
+        <v>8758.4000000000015</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" ref="E26:E30" si="0">SUM(C26+D26)*25%</f>
-        <v>3090</v>
+        <f t="shared" si="0"/>
+        <v>40038.400000000001</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H26" s="15">
-        <f t="shared" ref="H26:H30" si="1">SUM(C26:E26)*G26</f>
-        <v>61800</v>
+        <f t="shared" si="1"/>
+        <v>280268.79999999999</v>
       </c>
       <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="15">
-        <v>46000</v>
-      </c>
-      <c r="D27" s="15">
-        <v>10000</v>
+        <v>65320</v>
+      </c>
+      <c r="D27" s="16">
+        <f>SUM(C27)*28%</f>
+        <v>18289.600000000002</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>83609.600000000006</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="15">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>334438.40000000002</v>
       </c>
       <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="15">
-        <v>31280</v>
-      </c>
-      <c r="D28" s="15">
-        <v>10000</v>
+        <v>18216</v>
+      </c>
+      <c r="D28" s="16">
+        <f>SUM(C28)*28%</f>
+        <v>5100.4800000000005</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" si="0"/>
-        <v>10320</v>
+        <v>23316.48</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="1"/>
-        <v>361200</v>
-      </c>
+        <v>46632.959999999999</v>
+      </c>
+      <c r="J28" s="22"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="15">
-        <v>65320</v>
-      </c>
-      <c r="D29" s="15">
-        <v>10000</v>
-      </c>
-      <c r="E29" s="16">
-        <f t="shared" si="0"/>
-        <v>18830</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="14">
-        <v>4</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="1"/>
-        <v>376600</v>
-      </c>
-      <c r="K29" s="18"/>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>2</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C30" s="15">
-        <v>18216</v>
-      </c>
-      <c r="D30" s="15">
-        <v>10000</v>
+        <v>5000</v>
+      </c>
+      <c r="D30" s="16">
+        <f>SUM(C30)*28%</f>
+        <v>1400.0000000000002</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" si="0"/>
-        <v>7054</v>
+        <v>6400</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="1"/>
-        <v>70540</v>
-      </c>
-      <c r="J30" s="22"/>
+        <v>25600</v>
+      </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="16">
+        <f>SUM(C31)*28%</f>
+        <v>2800.0000000000005</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="16">
+        <f>SUM(C32)*28%</f>
+        <v>2800.0000000000005</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="14">
+        <v>7</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="1"/>
+        <v>89600</v>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+      <c r="B33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="16">
+        <f>SUM(C33)*28%</f>
+        <v>2800.0000000000005</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="14">
+        <v>4</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="1"/>
+        <v>51200</v>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="16">
+        <f>SUM(C34)*28%</f>
+        <v>2800.0000000000005</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="14">
+        <v>2</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="37">
-        <f>SUM(H25:H30)</f>
-        <v>1010140</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="32">
+        <f>SUM(H23:H34)</f>
+        <v>1034383.36</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" ht="7.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:11" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="5"/>
     </row>
@@ -1149,68 +1303,82 @@
       <c r="A39" s="25"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="22"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="J44" s="1"/>
-      <c r="K44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="8"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="J47" s="1"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A35:G35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
